--- a/data/trans_dic/P3A$otraSIcobraNOhogar-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P3A$otraSIcobraNOhogar-Clase-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.0133236652820124</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.002627144599365111</v>
+        <v>0.00262714459936511</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.008299302775733335</v>
+        <v>0.008299302775733333</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.006901166859095227</v>
+        <v>0.006334943241286312</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004197435033372211</v>
+        <v>0.004456631468340673</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02336432995354375</v>
+        <v>0.02386045451842273</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.009694781498112068</v>
+        <v>0.009289892586732067</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01383703611278277</v>
+        <v>0.01450899959902493</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002093867635578465</v>
+        <v>0.002255943423026181</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006123804377215876</v>
+        <v>0.006547682677920629</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005257813605596288</v>
+        <v>0.005464345271154648</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01748472309715947</v>
+        <v>0.01738743211347723</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02547473107204215</v>
+        <v>0.02505061773719766</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01701699475648391</v>
+        <v>0.01740341202260477</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.0217427788251496</v>
+        <v>0.02174277882514959</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.0414734227673755</v>
+        <v>0.04147342276737549</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.02734338140796497</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01322784579844227</v>
+        <v>0.01307022658734946</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02038144610497308</v>
+        <v>0.02300658746502681</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0175088640766246</v>
+        <v>0.01848617243720949</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03812600671546161</v>
+        <v>0.03726358372887474</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07191455480882621</v>
+        <v>0.07262586164600042</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03975557044995014</v>
+        <v>0.04027931085210842</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.02586642220787478</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.01592697731349643</v>
+        <v>0.01592697731349644</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.02157152474340179</v>
+        <v>0.0215715247434018</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01840743212457691</v>
+        <v>0.01750958842781967</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01086518733335096</v>
+        <v>0.01083721679113605</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01624704693863239</v>
+        <v>0.01606318960472325</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03959796584726637</v>
+        <v>0.03820732717677403</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02269050147086811</v>
+        <v>0.02301950133938818</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02870949511042027</v>
+        <v>0.02930440630100532</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0123039823349781</v>
+        <v>0.01195274567008831</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02423119479684907</v>
+        <v>0.02376217433152943</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02115345692261225</v>
+        <v>0.02055236365019963</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03592904380558157</v>
+        <v>0.03403967569221685</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03952989844923296</v>
+        <v>0.03942995268522994</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0339018264039923</v>
+        <v>0.03386760294316325</v>
       </c>
     </row>
     <row r="19">
@@ -857,10 +857,10 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.03020820782709563</v>
+        <v>0.02967896350654235</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02360945828017908</v>
+        <v>0.02355763427888739</v>
       </c>
     </row>
     <row r="21">
@@ -872,10 +872,10 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.05197123752821445</v>
+        <v>0.0495504156302505</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04051581240368603</v>
+        <v>0.03923330394461867</v>
       </c>
     </row>
     <row r="22">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01405225784846629</v>
+        <v>0.01411616733623296</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02080732910567238</v>
+        <v>0.02039194308072554</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01828969569320465</v>
+        <v>0.01823520064527574</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02309986222710755</v>
+        <v>0.02280311217176441</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0285839943252306</v>
+        <v>0.02795357275583848</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02428750750830537</v>
+        <v>0.023894744403995</v>
       </c>
     </row>
     <row r="25">
@@ -1074,13 +1074,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3800</v>
+        <v>3488</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4358</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="7">
@@ -1091,13 +1091,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12865</v>
+        <v>13138</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>4728</v>
+        <v>4531</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14368</v>
+        <v>15065</v>
       </c>
     </row>
     <row r="8">
@@ -1146,13 +1146,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1011</v>
+        <v>1089</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2591</v>
+        <v>2771</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4763</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="11">
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8440</v>
+        <v>8393</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10779</v>
+        <v>10600</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>15415</v>
+        <v>15765</v>
       </c>
     </row>
     <row r="12">
@@ -1218,13 +1218,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6238</v>
+        <v>6164</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3810</v>
+        <v>4301</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11530</v>
+        <v>12174</v>
       </c>
     </row>
     <row r="15">
@@ -1235,13 +1235,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17981</v>
+        <v>17574</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13443</v>
+        <v>13576</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>26181</v>
+        <v>26526</v>
       </c>
     </row>
     <row r="16">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>20834</v>
+        <v>19818</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9357</v>
+        <v>9333</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>32381</v>
+        <v>32015</v>
       </c>
     </row>
     <row r="19">
@@ -1307,13 +1307,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>44819</v>
+        <v>43245</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19541</v>
+        <v>19825</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>57220</v>
+        <v>58405</v>
       </c>
     </row>
     <row r="20">
@@ -1362,13 +1362,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>6988</v>
+        <v>6789</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>20132</v>
+        <v>19743</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>29590</v>
+        <v>28749</v>
       </c>
     </row>
     <row r="23">
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>20406</v>
+        <v>19333</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>32843</v>
+        <v>32760</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>47422</v>
+        <v>47374</v>
       </c>
     </row>
     <row r="24">
@@ -1435,10 +1435,10 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>25504</v>
+        <v>25057</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>25534</v>
+        <v>25478</v>
       </c>
     </row>
     <row r="27">
@@ -1450,10 +1450,10 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>43878</v>
+        <v>41834</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>43818</v>
+        <v>42431</v>
       </c>
     </row>
     <row r="28">
@@ -1502,13 +1502,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>48368</v>
+        <v>48588</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>75617</v>
+        <v>74107</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>129420</v>
+        <v>129035</v>
       </c>
     </row>
     <row r="31">
@@ -1519,13 +1519,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>79510</v>
+        <v>78488</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>103878</v>
+        <v>101587</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>171862</v>
+        <v>169083</v>
       </c>
     </row>
     <row r="32">
